--- a/100runs/run019/NotionalETEOutput019.xlsx
+++ b/100runs/run019/NotionalETEOutput019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_176.MISSILE_SOMERSAULT_176</t>
+    <t>MISSILE_HIGHWIND_37.MISSILE_HIGHWIND_37</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_64.MISSILE_SOMERSAULT_64</t>
+    <t>MISSILE_SOMERSAULT_53.MISSILE_SOMERSAULT_53</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_52.MISSILE_HIGHWIND_52</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G2">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H2">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I2">
-        <v>-801.2191253573441</v>
+        <v>1114861.277986808</v>
       </c>
       <c r="J2">
-        <v>2645.942291527462</v>
+        <v>4843226.055501202</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984360.737026896</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G3">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H3">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I3">
-        <v>-785.4009263867263</v>
+        <v>1114890.891981161</v>
       </c>
       <c r="J3">
-        <v>2581.577644096589</v>
+        <v>4843177.403885032</v>
       </c>
       <c r="K3">
-        <v>334.9420694745081</v>
+        <v>3984664.53228811</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G4">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H4">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I4">
-        <v>-769.1932188189332</v>
+        <v>1114921.235192881</v>
       </c>
       <c r="J4">
-        <v>2517.212996665717</v>
+        <v>4843128.752268861</v>
       </c>
       <c r="K4">
-        <v>653.1823920456884</v>
+        <v>3984953.178925054</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G5">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H5">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I5">
-        <v>-752.5864113631009</v>
+        <v>1114952.325578275</v>
       </c>
       <c r="J5">
-        <v>2452.848349234845</v>
+        <v>4843080.100652692</v>
       </c>
       <c r="K5">
-        <v>954.7209677135435</v>
+        <v>3985226.676937724</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G6">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H6">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I6">
-        <v>-735.5706765516513</v>
+        <v>1114984.181535807</v>
       </c>
       <c r="J6">
-        <v>2388.483701803973</v>
+        <v>4843031.449036522</v>
       </c>
       <c r="K6">
-        <v>1239.557796478071</v>
+        <v>3985485.026326125</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G7">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H7">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I7">
-        <v>-718.1359449246587</v>
+        <v>1115016.821916985</v>
       </c>
       <c r="J7">
-        <v>2324.1190543731</v>
+        <v>4842982.797420352</v>
       </c>
       <c r="K7">
-        <v>1507.692878339274</v>
+        <v>3985728.227090253</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G8">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H8">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I8">
-        <v>-700.2718990710104</v>
+        <v>1115050.266037522</v>
       </c>
       <c r="J8">
-        <v>2259.754406942228</v>
+        <v>4842934.145804181</v>
       </c>
       <c r="K8">
-        <v>1759.12621329715</v>
+        <v>3985956.279230109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G9">
-        <v>-89.80000957495588</v>
+        <v>4841123.326144401</v>
       </c>
       <c r="H9">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I9">
-        <v>-681.9679675228368</v>
+        <v>1115084.533688758</v>
       </c>
       <c r="J9">
-        <v>2195.389759511355</v>
+        <v>4842885.494188011</v>
       </c>
       <c r="K9">
-        <v>1993.857801351699</v>
+        <v>3986169.182745694</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>32.53888089565779</v>
+        <v>1116577.026110499</v>
       </c>
       <c r="G10">
-        <v>-74.97150029015746</v>
+        <v>4841139.838959392</v>
       </c>
       <c r="H10">
-        <v>880.5493138145195</v>
+        <v>3985229.566599104</v>
       </c>
       <c r="I10">
-        <v>-663.2133184995979</v>
+        <v>1115119.645149381</v>
       </c>
       <c r="J10">
-        <v>2131.025112080483</v>
+        <v>4842836.842571841</v>
       </c>
       <c r="K10">
-        <v>2211.887642502922</v>
+        <v>3986366.937637007</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>25.25396744564432</v>
+        <v>1116528.345611156</v>
       </c>
       <c r="G11">
-        <v>-60.14299100535903</v>
+        <v>4841156.351774381</v>
       </c>
       <c r="H11">
-        <v>1084.830829354007</v>
+        <v>3985428.821067789</v>
       </c>
       <c r="I11">
-        <v>-643.9968534981223</v>
+        <v>1115155.62119742</v>
       </c>
       <c r="J11">
-        <v>2066.660464649611</v>
+        <v>4842788.190955671</v>
       </c>
       <c r="K11">
-        <v>2413.215736750817</v>
+        <v>3986549.543904048</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>20.97444624446979</v>
+        <v>1116499.748259869</v>
       </c>
       <c r="G12">
-        <v>-45.31448172056061</v>
+        <v>4841172.864589373</v>
       </c>
       <c r="H12">
-        <v>1206.511347362655</v>
+        <v>3985547.507219597</v>
       </c>
       <c r="I12">
-        <v>-624.307200724809</v>
+        <v>1115192.483122544</v>
       </c>
       <c r="J12">
-        <v>2002.295817218739</v>
+        <v>4842739.5393395</v>
       </c>
       <c r="K12">
-        <v>2597.842084095388</v>
+        <v>3986717.001546818</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>18.27289850072816</v>
+        <v>1116481.695513729</v>
       </c>
       <c r="G13">
-        <v>-30.48597243576219</v>
+        <v>4841189.377404364</v>
       </c>
       <c r="H13">
-        <v>1293.468189511624</v>
+        <v>3985632.324190605</v>
       </c>
       <c r="I13">
-        <v>-604.132708366101</v>
+        <v>1115230.252738662</v>
       </c>
       <c r="J13">
-        <v>1937.931169787866</v>
+        <v>4842690.88772333</v>
       </c>
       <c r="K13">
-        <v>2765.766684536632</v>
+        <v>3986869.310565317</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>16.38885007046883</v>
+        <v>1116469.105601852</v>
       </c>
       <c r="G14">
-        <v>-15.65746315096376</v>
+        <v>4841205.890219354</v>
       </c>
       <c r="H14">
-        <v>1361.181435905864</v>
+        <v>3985698.371120487</v>
       </c>
       <c r="I14">
-        <v>-583.4614376932528</v>
+        <v>1115268.95239683</v>
       </c>
       <c r="J14">
-        <v>1873.566522356994</v>
+        <v>4842642.23610716</v>
       </c>
       <c r="K14">
-        <v>2916.98953807455</v>
+        <v>3987006.470959543</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>14.98329352068234</v>
+        <v>1116459.713150566</v>
       </c>
       <c r="G15">
-        <v>-0.8289538661653495</v>
+        <v>4841222.403034344</v>
       </c>
       <c r="H15">
-        <v>1416.643837020894</v>
+        <v>3985752.468679129</v>
       </c>
       <c r="I15">
-        <v>-562.281155997306</v>
+        <v>1115308.604998477</v>
       </c>
       <c r="J15">
-        <v>1809.201874926122</v>
+        <v>4842593.58449099</v>
       </c>
       <c r="K15">
-        <v>3051.51064470914</v>
+        <v>3987128.482729498</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>13.88434457890241</v>
+        <v>1116452.369565278</v>
       </c>
       <c r="G16">
-        <v>13.99955541863308</v>
+        <v>4841238.915849335</v>
       </c>
       <c r="H16">
-        <v>1463.616442206268</v>
+        <v>3985798.285362367</v>
       </c>
       <c r="I16">
-        <v>-540.5793293500983</v>
+        <v>1115349.234008959</v>
       </c>
       <c r="J16">
-        <v>1744.83722749525</v>
+        <v>4842544.932874819</v>
       </c>
       <c r="K16">
-        <v>3169.330004440405</v>
+        <v>3987235.345875181</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>12.99521486790622</v>
+        <v>1116446.428070075</v>
       </c>
       <c r="G17">
-        <v>28.8280647034315</v>
+        <v>4841255.428664326</v>
       </c>
       <c r="H17">
-        <v>1504.35662221823</v>
+        <v>3985838.022990615</v>
       </c>
       <c r="I17">
-        <v>-518.3431151870175</v>
+        <v>1115390.863471447</v>
       </c>
       <c r="J17">
-        <v>1680.472580064378</v>
+        <v>4842496.28125865</v>
       </c>
       <c r="K17">
-        <v>3270.447617268343</v>
+        <v>3987327.060396593</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>12.25692039311505</v>
+        <v>1116441.494511984</v>
       </c>
       <c r="G18">
-        <v>43.65657398822992</v>
+        <v>4841271.941479317</v>
       </c>
       <c r="H18">
-        <v>1540.326169777305</v>
+        <v>3985873.107384172</v>
       </c>
       <c r="I18">
-        <v>-495.5593547071128</v>
+        <v>1115433.51802115</v>
       </c>
       <c r="J18">
-        <v>1616.107932633505</v>
+        <v>4842447.62964248</v>
       </c>
       <c r="K18">
-        <v>3354.863483192955</v>
+        <v>3987403.626293733</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>11.63127137548666</v>
+        <v>1116437.313692706</v>
       </c>
       <c r="G19">
-        <v>58.48508327302836</v>
+        <v>4841288.454294306</v>
       </c>
       <c r="H19">
-        <v>1572.526152954401</v>
+        <v>3985904.514976399</v>
       </c>
       <c r="I19">
-        <v>-472.2145650860656</v>
+        <v>1115477.222899899</v>
       </c>
       <c r="J19">
-        <v>1551.743285202633</v>
+        <v>4842398.97802631</v>
       </c>
       <c r="K19">
-        <v>3422.57760221424</v>
+        <v>3987465.043566601</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>11.09233578534714</v>
+        <v>1116433.71232478</v>
       </c>
       <c r="G20">
-        <v>73.31359255782677</v>
+        <v>4841304.967109297</v>
       </c>
       <c r="H20">
-        <v>1601.672251812097</v>
+        <v>3985932.943835597</v>
       </c>
       <c r="I20">
-        <v>-448.2949314974128</v>
+        <v>1115522.003971078</v>
       </c>
       <c r="J20">
-        <v>1487.378637771761</v>
+        <v>4842350.326410139</v>
       </c>
       <c r="K20">
-        <v>3473.589974332199</v>
+        <v>3987511.312215198</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>10.62181716741867</v>
+        <v>1116430.568144492</v>
       </c>
       <c r="G21">
-        <v>88.14210184262518</v>
+        <v>4841321.479924289</v>
       </c>
       <c r="H21">
-        <v>1628.293885154397</v>
+        <v>3985958.910352407</v>
       </c>
       <c r="I21">
-        <v>-423.7862989372989</v>
+        <v>1115567.887734938</v>
       </c>
       <c r="J21">
-        <v>1423.013990340888</v>
+        <v>4842301.674793969</v>
       </c>
       <c r="K21">
-        <v>3507.900599546832</v>
+        <v>3987542.432239523</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>10.20639369867081</v>
+        <v>1116427.792130468</v>
       </c>
       <c r="G22">
-        <v>102.9706111274236</v>
+        <v>4841337.992739279</v>
       </c>
       <c r="H22">
-        <v>1652.79371679376</v>
+        <v>3985982.807281717</v>
       </c>
       <c r="I22">
-        <v>-398.6741638479206</v>
+        <v>1115614.90134427</v>
       </c>
       <c r="J22">
-        <v>1358.649342910016</v>
+        <v>4842253.023177799</v>
       </c>
       <c r="K22">
-        <v>3525.509477858139</v>
+        <v>3987558.403639576</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>9.83610726776263</v>
+        <v>1116425.317738908</v>
       </c>
       <c r="G23">
-        <v>117.799120412222</v>
+        <v>4841354.505554269</v>
       </c>
       <c r="H23">
-        <v>1675.485145885008</v>
+        <v>3986004.940310421</v>
       </c>
       <c r="I23">
-        <v>-372.943665534707</v>
+        <v>1115663.072620481</v>
       </c>
       <c r="J23">
-        <v>1294.284695479144</v>
+        <v>4842204.37156163</v>
       </c>
       <c r="K23">
-        <v>3526.416609266118</v>
+        <v>3987559.226415358</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>9.503346430626138</v>
+        <v>1116423.094107313</v>
       </c>
       <c r="G24">
-        <v>132.6276296970205</v>
+        <v>4841371.01836926</v>
       </c>
       <c r="H24">
-        <v>1696.616885891877</v>
+        <v>3986025.552031538</v>
       </c>
       <c r="I24">
-        <v>-346.579577372155</v>
+        <v>1115712.430070051</v>
       </c>
       <c r="J24">
-        <v>1229.920048048271</v>
+        <v>4842155.719945459</v>
       </c>
       <c r="K24">
-        <v>3510.621993770772</v>
+        <v>3987544.900566868</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>9.202181090245009</v>
+        <v>1116421.081608571</v>
       </c>
       <c r="G25">
-        <v>147.4561389818189</v>
+        <v>4841387.53118425</v>
       </c>
       <c r="H25">
-        <v>1716.389625930283</v>
+        <v>3986044.838195537</v>
       </c>
       <c r="I25">
-        <v>-319.5662977931163</v>
+        <v>1115763.002901409</v>
       </c>
       <c r="J25">
-        <v>1165.555400617399</v>
+        <v>4842107.068329289</v>
       </c>
       <c r="K25">
-        <v>3478.1256313721</v>
+        <v>3987515.426094106</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>8.927913813786164</v>
+        <v>1116419.24885269</v>
       </c>
       <c r="G26">
-        <v>162.2846482666173</v>
+        <v>4841404.043999242</v>
       </c>
       <c r="H26">
-        <v>1734.96765071299</v>
+        <v>3986062.959044345</v>
       </c>
       <c r="I26">
-        <v>-291.8878410562054</v>
+        <v>1115814.821042213</v>
       </c>
       <c r="J26">
-        <v>1101.190753186527</v>
+        <v>4842058.416713119</v>
       </c>
       <c r="K26">
-        <v>3428.9275220701</v>
+        <v>3987470.802997073</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>8.676769162866995</v>
+        <v>1116417.570610786</v>
       </c>
       <c r="G27">
-        <v>177.1131575514157</v>
+        <v>4841420.556814231</v>
       </c>
       <c r="H27">
-        <v>1752.487145619827</v>
+        <v>3986080.047412032</v>
       </c>
       <c r="I27">
-        <v>-263.5278277858614</v>
+        <v>1115867.915157062</v>
       </c>
       <c r="J27">
-        <v>1036.826105755654</v>
+        <v>4842009.765096948</v>
       </c>
       <c r="K27">
-        <v>3363.027665864775</v>
+        <v>3987411.031275768</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>8.445673566731379</v>
+        <v>1116416.026344119</v>
       </c>
       <c r="G28">
-        <v>191.9416668362142</v>
+        <v>4841437.069629222</v>
       </c>
       <c r="H28">
-        <v>1769.062260680827</v>
+        <v>3986096.214639577</v>
       </c>
       <c r="I28">
-        <v>-234.4694752794692</v>
+        <v>1115922.316665645</v>
       </c>
       <c r="J28">
-        <v>972.4614583247824</v>
+        <v>4841961.113480777</v>
       </c>
       <c r="K28">
-        <v>3280.426062756123</v>
+        <v>3987336.110930191</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>8.232096145677257</v>
+        <v>1116414.599140408</v>
       </c>
       <c r="G29">
-        <v>206.7701761210126</v>
+        <v>4841453.582444213</v>
       </c>
       <c r="H29">
-        <v>1784.78962215891</v>
+        <v>3986111.554975421</v>
       </c>
       <c r="I29">
-        <v>-204.6955875758007</v>
+        <v>1115978.057761327</v>
       </c>
       <c r="J29">
-        <v>908.0968108939099</v>
+        <v>4841912.461864608</v>
       </c>
       <c r="K29">
-        <v>3181.122712744145</v>
+        <v>3987246.041960344</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>8.03393150971867</v>
+        <v>1116413.274930657</v>
       </c>
       <c r="G30">
-        <v>221.598685405811</v>
+        <v>4841470.095259204</v>
       </c>
       <c r="H30">
-        <v>1799.751745496495</v>
+        <v>3986126.148904432</v>
       </c>
       <c r="I30">
-        <v>-174.188545278904</v>
+        <v>1116035.17143021</v>
       </c>
       <c r="J30">
-        <v>843.7321634630375</v>
+        <v>4841863.810248438</v>
       </c>
       <c r="K30">
-        <v>3065.11761582884</v>
+        <v>3987140.824366224</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>7.849412057645679</v>
+        <v>1116412.041903095</v>
       </c>
       <c r="G31">
-        <v>236.4271946906094</v>
+        <v>4841486.608074194</v>
       </c>
       <c r="H31">
-        <v>1814.019655811893</v>
+        <v>3986140.065703911</v>
       </c>
       <c r="I31">
-        <v>-142.9302951314106</v>
+        <v>1116093.691470645</v>
       </c>
       <c r="J31">
-        <v>779.3675160321654</v>
+        <v>4841815.158632267</v>
       </c>
       <c r="K31">
-        <v>2932.41077201021</v>
+        <v>3987020.458147833</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>7.677041389950058</v>
+        <v>1116410.890058227</v>
       </c>
       <c r="G32">
-        <v>251.2557039754079</v>
+        <v>4841503.120889185</v>
       </c>
       <c r="H32">
-        <v>1827.654926979832</v>
+        <v>3986153.365432498</v>
       </c>
       <c r="I32">
-        <v>-110.902339331098</v>
+        <v>1116153.652513239</v>
       </c>
       <c r="J32">
-        <v>715.0028686012931</v>
+        <v>4841766.507016097</v>
       </c>
       <c r="K32">
-        <v>2783.002181288251</v>
+        <v>3986884.943305169</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>7.515543083314707</v>
+        <v>1116409.810866516</v>
       </c>
       <c r="G33">
-        <v>266.0842132602062</v>
+        <v>4841519.633704175</v>
       </c>
       <c r="H33">
-        <v>1840.711287541156</v>
+        <v>3986166.100496558</v>
       </c>
       <c r="I33">
-        <v>-78.08572458438152</v>
+        <v>1116215.090041343</v>
       </c>
       <c r="J33">
-        <v>650.638221170421</v>
+        <v>4841717.855399927</v>
       </c>
       <c r="K33">
-        <v>2616.891843662968</v>
+        <v>3986734.279838235</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>7.363820809015107</v>
+        <v>1116408.797001887</v>
       </c>
       <c r="G34">
-        <v>280.9127225450047</v>
+        <v>4841536.146519166</v>
       </c>
       <c r="H34">
-        <v>1853.235899380368</v>
+        <v>3986178.316897395</v>
       </c>
       <c r="I34">
-        <v>-44.46103089025912</v>
+        <v>1116278.040412055</v>
       </c>
       <c r="J34">
-        <v>586.2735737395486</v>
+        <v>4841669.203783757</v>
       </c>
       <c r="K34">
-        <v>2434.079759134358</v>
+        <v>3986568.467747028</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>7.220926942576305</v>
+        <v>1116407.84213196</v>
       </c>
       <c r="G35">
-        <v>295.7412318298032</v>
+        <v>4841552.659334156</v>
       </c>
       <c r="H35">
-        <v>1865.270386062716</v>
+        <v>3986190.055234285</v>
       </c>
       <c r="I35">
-        <v>-10.00836004807008</v>
+        <v>1116342.540877733</v>
       </c>
       <c r="J35">
-        <v>521.9089263086762</v>
+        <v>4841620.552167587</v>
       </c>
       <c r="K35">
-        <v>2234.565927702421</v>
+        <v>3986387.50703155</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>7.086037608579212</v>
+        <v>1116406.940751294</v>
       </c>
       <c r="G36">
-        <v>310.5697411146016</v>
+        <v>4841569.172149147</v>
       </c>
       <c r="H36">
-        <v>1876.851667435543</v>
+        <v>3986201.351518535</v>
       </c>
       <c r="I36">
-        <v>25.29267611773199</v>
+        <v>1116408.629608039</v>
       </c>
       <c r="J36">
-        <v>457.5442788778041</v>
+        <v>4841571.900551417</v>
       </c>
       <c r="K36">
-        <v>2018.350349367159</v>
+        <v>3986191.397691801</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>6.958432658130636</v>
+        <v>1116406.088047587</v>
       </c>
       <c r="G37">
-        <v>325.3982503994</v>
+        <v>4841585.684964138</v>
       </c>
       <c r="H37">
-        <v>1888.012642707225</v>
+        <v>3986212.237839757</v>
       </c>
       <c r="I37">
-        <v>61.4629678227591</v>
+        <v>1116476.345712528</v>
       </c>
       <c r="J37">
-        <v>393.1796314469318</v>
+        <v>4841523.248935247</v>
       </c>
       <c r="K37">
-        <v>1785.43302412857</v>
+        <v>3985980.139727779</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>6.837479467104249</v>
+        <v>1116405.279793408</v>
       </c>
       <c r="G38">
-        <v>340.2267596841984</v>
+        <v>4841602.197779127</v>
       </c>
       <c r="H38">
-        <v>1898.782753861115</v>
+        <v>3986222.742915411</v>
       </c>
       <c r="I38">
-        <v>98.52391968496462</v>
+        <v>1116545.729263793</v>
       </c>
       <c r="J38">
-        <v>328.8149840160597</v>
+        <v>4841474.597319077</v>
       </c>
       <c r="K38">
-        <v>1535.813951986655</v>
+        <v>3985753.733139486</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>6.72261972266837</v>
+        <v>1116404.512257905</v>
       </c>
       <c r="G39">
-        <v>355.0552689689969</v>
+        <v>4841618.710594119</v>
       </c>
       <c r="H39">
-        <v>1909.188453711402</v>
+        <v>3986232.892547352</v>
       </c>
       <c r="I39">
-        <v>136.4974633913261</v>
+        <v>1116616.821321175</v>
       </c>
       <c r="J39">
-        <v>264.4503365851872</v>
+        <v>4841425.945702906</v>
       </c>
       <c r="K39">
-        <v>1269.493132941412</v>
+        <v>3985512.177926921</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>6.613358568054557</v>
+        <v>1116403.782134259</v>
       </c>
       <c r="G40">
-        <v>369.8837782537952</v>
+        <v>4841635.22340911</v>
       </c>
       <c r="H40">
-        <v>1919.253597335743</v>
+        <v>3986242.71000362</v>
       </c>
       <c r="I40">
-        <v>175.4060706764374</v>
+        <v>1116689.663955068</v>
       </c>
       <c r="J40">
-        <v>200.0856891543149</v>
+        <v>4841377.294086736</v>
       </c>
       <c r="K40">
-        <v>986.4705669928434</v>
+        <v>3985255.474090085</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>6.50925562393583</v>
+        <v>1116403.086479693</v>
       </c>
       <c r="G41">
-        <v>384.7122875385937</v>
+        <v>4841651.7362241</v>
       </c>
       <c r="H41">
-        <v>1928.99977146102</v>
+        <v>3986252.216339726</v>
       </c>
       <c r="I41">
-        <v>215.2727666206816</v>
+        <v>1116764.300271805</v>
       </c>
       <c r="J41">
-        <v>135.7210417234428</v>
+        <v>4841328.642470567</v>
       </c>
       <c r="K41">
-        <v>686.7462541409492</v>
+        <v>3984983.621628977</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>6.409917514794134</v>
+        <v>1116402.422665526</v>
       </c>
       <c r="G42">
-        <v>399.540796823392</v>
+        <v>4841668.24903909</v>
       </c>
       <c r="H42">
-        <v>1938.446573242679</v>
+        <v>3986261.430670572</v>
       </c>
       <c r="I42">
-        <v>256.1211432758659</v>
+        <v>1116840.774439179</v>
       </c>
       <c r="J42">
-        <v>71.35639429257039</v>
+        <v>4841279.990854396</v>
       </c>
       <c r="K42">
-        <v>370.3201943857276</v>
+        <v>3984696.620543597</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>6.314991611036937</v>
+        <v>1116401.788335355</v>
       </c>
       <c r="G43">
-        <v>414.3693061081905</v>
+        <v>4841684.761854081</v>
       </c>
       <c r="H43">
-        <v>1947.61184749032</v>
+        <v>3986270.370401833</v>
       </c>
       <c r="I43">
-        <v>297.9753736263664</v>
+        <v>1116919.131712569</v>
       </c>
       <c r="J43">
-        <v>6.991746861698</v>
+        <v>4841231.339238225</v>
       </c>
       <c r="K43">
-        <v>37.19238772717996</v>
+        <v>3984394.470833946</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>6.224160759906415</v>
+        <v>1116401.181369847</v>
       </c>
       <c r="G44">
-        <v>429.197815392989</v>
+        <v>4841701.274669072</v>
       </c>
       <c r="H44">
-        <v>1956.511889557478</v>
+        <v>3986279.05142786</v>
       </c>
       <c r="I44">
-        <v>340.8602258940617</v>
+        <v>1116999.418461729</v>
       </c>
       <c r="J44">
-        <v>-57.37290056917409</v>
+        <v>4841182.687622055</v>
       </c>
       <c r="K44">
-        <v>-312.6371658346931</v>
+        <v>3984077.172500023</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>6.137138825735411</v>
+        <v>1116400.599856939</v>
       </c>
       <c r="G45">
-        <v>444.0263246777873</v>
+        <v>4841717.787484063</v>
       </c>
       <c r="H45">
-        <v>1965.161619691866</v>
+        <v>3986287.488301738</v>
       </c>
       <c r="I45">
-        <v>384.8010781955086</v>
+        <v>1117081.682198224</v>
       </c>
       <c r="J45">
-        <v>-121.7375480000465</v>
+        <v>4841134.036005885</v>
       </c>
       <c r="K45">
-        <v>-679.1684662998936</v>
+        <v>3983744.725541829</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>6.053666896651348</v>
+        <v>1116400.042066484</v>
       </c>
       <c r="G46">
-        <v>458.8548339625858</v>
+        <v>4841734.300299052</v>
       </c>
       <c r="H46">
-        <v>1973.574733531999</v>
+        <v>3986295.694382077</v>
       </c>
       <c r="I46">
-        <v>429.823933560036</v>
+        <v>1117165.97160355</v>
       </c>
       <c r="J46">
-        <v>-186.1021954309189</v>
+        <v>4841085.384389714</v>
       </c>
       <c r="K46">
-        <v>-1062.401513668421</v>
+        <v>3983397.129959363</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2040,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>5.973510043165942</v>
+        <v>1116399.506428596</v>
       </c>
       <c r="G47">
-        <v>473.6833432473842</v>
+        <v>4841750.813114043</v>
       </c>
       <c r="H47">
-        <v>1981.763832562313</v>
+        <v>3986303.681960258</v>
       </c>
       <c r="I47">
-        <v>475.9554353176475</v>
+        <v>1117252.336557936</v>
       </c>
       <c r="J47">
-        <v>-250.4668428617913</v>
+        <v>4841036.732773545</v>
       </c>
       <c r="K47">
-        <v>-1462.336307940275</v>
+        <v>3983034.385752625</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2075,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>5.896454536221325</v>
+        <v>1116398.991515058</v>
       </c>
       <c r="G48">
-        <v>488.5118525321826</v>
+        <v>4841767.325929035</v>
       </c>
       <c r="H48">
-        <v>1989.74053764659</v>
+        <v>3986311.462371173</v>
       </c>
       <c r="I48">
-        <v>523.2228828658364</v>
+        <v>1117340.82816987</v>
       </c>
       <c r="J48">
-        <v>-314.831490292663</v>
+        <v>4840988.081157375</v>
       </c>
       <c r="K48">
-        <v>-1878.972849115451</v>
+        <v>3982656.492921615</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2110,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>5.8223054496731</v>
+        <v>1116398.496023302</v>
       </c>
       <c r="G49">
-        <v>503.3403618169811</v>
+        <v>4841783.838744025</v>
       </c>
       <c r="H49">
-        <v>1997.515588207142</v>
+        <v>3986319.046089966</v>
       </c>
       <c r="I49">
-        <v>571.6542478246456</v>
+        <v>1117431.498806338</v>
       </c>
       <c r="J49">
-        <v>-379.1961377235355</v>
+        <v>4840939.429541205</v>
       </c>
       <c r="K49">
-        <v>-2312.311137193957</v>
+        <v>3982263.451466335</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2145,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>5.750884585975514</v>
+        <v>1116398.018762545</v>
       </c>
       <c r="G50">
-        <v>518.1688711017795</v>
+        <v>4841800.351559015</v>
       </c>
       <c r="H50">
-        <v>2005.098929173974</v>
+        <v>3986326.442816837</v>
       </c>
       <c r="I50">
-        <v>621.2781905895264</v>
+        <v>1117524.402123813</v>
       </c>
       <c r="J50">
-        <v>-443.5607851544078</v>
+        <v>4840890.777925034</v>
       </c>
       <c r="K50">
-        <v>-2762.35117217579</v>
+        <v>3981855.261386781</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2180,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>5.682028674817174</v>
+        <v>1116397.558641754</v>
       </c>
       <c r="G51">
-        <v>532.9973803865779</v>
+        <v>4841816.864374006</v>
       </c>
       <c r="H51">
-        <v>2012.499787470177</v>
+        <v>3986333.661551649</v>
       </c>
       <c r="I51">
-        <v>672.1240772918022</v>
+        <v>1117619.593100011</v>
       </c>
       <c r="J51">
-        <v>-507.9254325852802</v>
+        <v>4840842.126308864</v>
       </c>
       <c r="K51">
-        <v>-3229.09295406095</v>
+        <v>3981431.922682957</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2215,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>5.615587803259206</v>
+        <v>1116397.114659155</v>
       </c>
       <c r="G52">
-        <v>547.8258896713763</v>
+        <v>4841833.377188996</v>
       </c>
       <c r="H52">
-        <v>2019.726739509206</v>
+        <v>3986340.710659763</v>
       </c>
       <c r="I52">
-        <v>724.221997176764</v>
+        <v>1117717.128066424</v>
       </c>
       <c r="J52">
-        <v>-572.2900800161526</v>
+        <v>4840793.474692694</v>
       </c>
       <c r="K52">
-        <v>-3712.536482849434</v>
+        <v>3980993.435354861</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2250,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>5.551424043022712</v>
+        <v>1116396.685893061</v>
       </c>
       <c r="G53">
-        <v>562.6543989561748</v>
+        <v>4841849.890003988</v>
       </c>
       <c r="H53">
-        <v>2026.787770942459</v>
+        <v>3986347.597930316</v>
       </c>
       <c r="I53">
-        <v>777.6027804096843</v>
+        <v>1117817.064741654</v>
       </c>
       <c r="J53">
-        <v>-636.6547274470244</v>
+        <v>4840744.823076525</v>
       </c>
       <c r="K53">
-        <v>-4212.681758541243</v>
+        <v>3980539.799402494</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2285,31 +2294,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>5.489410246322592</v>
+        <v>1116396.271493822</v>
       </c>
       <c r="G54">
-        <v>577.4829082409732</v>
+        <v>4841866.402818978</v>
       </c>
       <c r="H54">
-        <v>2033.690329700991</v>
+        <v>3986354.330627959</v>
       </c>
       <c r="I54">
-        <v>832.2980163202963</v>
+        <v>1117919.462265572</v>
       </c>
       <c r="J54">
-        <v>-701.0193748778968</v>
+        <v>4840696.171460354</v>
       </c>
       <c r="K54">
-        <v>-4729.528781136381</v>
+        <v>3980071.014825854</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2317,34 +2326,34 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G55">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H55">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I55">
-        <v>-1191.332681533218</v>
+        <v>1114862.588488267</v>
       </c>
       <c r="J55">
-        <v>2255.488191416665</v>
+        <v>4843218.922687014</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984369.510760428</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2352,34 +2361,34 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G56">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H56">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I56">
-        <v>-1167.812602193765</v>
+        <v>1114892.202517432</v>
       </c>
       <c r="J56">
-        <v>2200.621650037479</v>
+        <v>4843170.271142495</v>
       </c>
       <c r="K56">
-        <v>328.1114892362748</v>
+        <v>3984673.306690613</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2387,34 +2396,34 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G57">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H57">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I57">
-        <v>-1143.713362538654</v>
+        <v>1114922.54576482</v>
       </c>
       <c r="J57">
-        <v>2145.755108658293</v>
+        <v>4843121.619597975</v>
       </c>
       <c r="K57">
-        <v>639.8618356101562</v>
+        <v>3984961.953963169</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2422,34 +2431,34 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G58">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H58">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I58">
-        <v>-1119.02070127793</v>
+        <v>1114953.63618676</v>
       </c>
       <c r="J58">
-        <v>2090.888567279107</v>
+        <v>4843072.968053456</v>
       </c>
       <c r="K58">
-        <v>935.251039121646</v>
+        <v>3985235.452578094</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2457,34 +2466,34 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G59">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H59">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I59">
-        <v>-1093.720005950492</v>
+        <v>1114985.492181737</v>
       </c>
       <c r="J59">
-        <v>2036.022025899922</v>
+        <v>4843024.316508938</v>
       </c>
       <c r="K59">
-        <v>1214.279099770743</v>
+        <v>3985493.80253539</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2492,34 +2501,34 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G60">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H60">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I60">
-        <v>-1067.796304276829</v>
+        <v>1115018.132601284</v>
       </c>
       <c r="J60">
-        <v>1981.155484520735</v>
+        <v>4842975.664964419</v>
       </c>
       <c r="K60">
-        <v>1476.946017557448</v>
+        <v>3985737.003835057</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2527,34 +2536,34 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G61">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H61">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I61">
-        <v>-1041.23425529882</v>
+        <v>1115051.576761134</v>
       </c>
       <c r="J61">
-        <v>1926.288943141549</v>
+        <v>4842927.013419899</v>
       </c>
       <c r="K61">
-        <v>1723.251792481761</v>
+        <v>3985965.056477094</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2562,34 +2571,34 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G62">
-        <v>-147.1177510015205</v>
+        <v>4841121.413111201</v>
       </c>
       <c r="H62">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I62">
-        <v>-1014.018140301365</v>
+        <v>1115085.844452651</v>
       </c>
       <c r="J62">
-        <v>1871.422401762364</v>
+        <v>4842878.36187538</v>
       </c>
       <c r="K62">
-        <v>1953.196424543682</v>
+        <v>3986177.960461502</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2597,34 +2606,34 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>332.0706856130903</v>
+        <v>1116578.047218476</v>
       </c>
       <c r="G63">
-        <v>-122.8244692189191</v>
+        <v>4841137.925919666</v>
       </c>
       <c r="H63">
-        <v>1274.6844028931</v>
+        <v>3985223.698767472</v>
       </c>
       <c r="I63">
-        <v>-986.1318535104639</v>
+        <v>1115120.955954547</v>
       </c>
       <c r="J63">
-        <v>1816.555860383178</v>
+        <v>4842829.710330862</v>
       </c>
       <c r="K63">
-        <v>2166.77991374321</v>
+        <v>3986375.71578828</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2632,34 +2641,34 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>257.7255902259648</v>
+        <v>1116529.366674615</v>
       </c>
       <c r="G64">
-        <v>-98.53118743631764</v>
+        <v>4841154.438728131</v>
       </c>
       <c r="H64">
-        <v>1570.402606941804</v>
+        <v>3985422.952942776</v>
       </c>
       <c r="I64">
-        <v>-957.5588925622503</v>
+        <v>1115156.932044875</v>
       </c>
       <c r="J64">
-        <v>1761.689319003992</v>
+        <v>4842781.058786343</v>
       </c>
       <c r="K64">
-        <v>2364.002260080345</v>
+        <v>3986558.322457428</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2667,34 +2676,34 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>214.0515762386115</v>
+        <v>1116500.769297176</v>
       </c>
       <c r="G65">
-        <v>-74.23790565371623</v>
+        <v>4841170.951536597</v>
       </c>
       <c r="H65">
-        <v>1746.547492876323</v>
+        <v>3985541.638919831</v>
       </c>
       <c r="I65">
-        <v>-928.2823487373292</v>
+        <v>1115193.79401333</v>
       </c>
       <c r="J65">
-        <v>1706.822777624806</v>
+        <v>4842732.407241823</v>
       </c>
       <c r="K65">
-        <v>2544.863463555088</v>
+        <v>3986725.780468947</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2702,34 +2711,34 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>186.4813345220164</v>
+        <v>1116482.716534526</v>
       </c>
       <c r="G66">
-        <v>-49.9446238711148</v>
+        <v>4841187.464345062</v>
       </c>
       <c r="H66">
-        <v>1872.426337676009</v>
+        <v>3985626.455765955</v>
       </c>
       <c r="I66">
-        <v>-898.2848969546454</v>
+        <v>1115231.563673846</v>
       </c>
       <c r="J66">
-        <v>1651.95623624562</v>
+        <v>4842683.755697304</v>
       </c>
       <c r="K66">
-        <v>2709.36352416744</v>
+        <v>3986878.089822836</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2737,34 +2746,34 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>167.2539598630444</v>
+        <v>1116470.126611135</v>
       </c>
       <c r="G67">
-        <v>-25.65134208851337</v>
+        <v>4841203.977153528</v>
       </c>
       <c r="H67">
-        <v>1970.448126681884</v>
+        <v>3985692.50259859</v>
       </c>
       <c r="I67">
-        <v>-867.5487855189631</v>
+        <v>1115270.263377504</v>
       </c>
       <c r="J67">
-        <v>1597.089694866434</v>
+        <v>4842635.104152786</v>
       </c>
       <c r="K67">
-        <v>2857.502441917399</v>
+        <v>3987015.250519095</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2772,34 +2781,34 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>152.9097625732767</v>
+        <v>1116460.73415126</v>
       </c>
       <c r="G68">
-        <v>-1.358060305911961</v>
+        <v>4841220.489961993</v>
       </c>
       <c r="H68">
-        <v>2050.735575140701</v>
+        <v>3985746.600077578</v>
       </c>
       <c r="I68">
-        <v>-836.0558256158811</v>
+        <v>1115309.916025762</v>
       </c>
       <c r="J68">
-        <v>1542.223153487248</v>
+        <v>4842586.452608267</v>
       </c>
       <c r="K68">
-        <v>2989.280216804965</v>
+        <v>3987137.262557726</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2807,34 +2816,34 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>141.6946034004441</v>
+        <v>1116453.390559256</v>
       </c>
       <c r="G69">
-        <v>22.93522147668947</v>
+        <v>4841237.002770457</v>
       </c>
       <c r="H69">
-        <v>2118.733183285636</v>
+        <v>3985792.416693356</v>
       </c>
       <c r="I69">
-        <v>-803.7873805481775</v>
+        <v>1115350.545084003</v>
       </c>
       <c r="J69">
-        <v>1487.356612108062</v>
+        <v>4842537.801063747</v>
       </c>
       <c r="K69">
-        <v>3104.69684883014</v>
+        <v>3987244.125938727</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2842,34 +2851,34 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>132.6207230271067</v>
+        <v>1116447.44905862</v>
       </c>
       <c r="G70">
-        <v>47.2285032592909</v>
+        <v>4841253.515578924</v>
       </c>
       <c r="H70">
-        <v>2177.708724141312</v>
+        <v>3985832.154263095</v>
       </c>
       <c r="I70">
-        <v>-770.7243547071066</v>
+        <v>1115392.174595426</v>
       </c>
       <c r="J70">
-        <v>1432.490070728877</v>
+        <v>4842489.149519228</v>
       </c>
       <c r="K70">
-        <v>3203.752337992921</v>
+        <v>3987335.840662097</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2877,34 +2886,34 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>125.0861691125319</v>
+        <v>1116442.515496017</v>
       </c>
       <c r="G71">
-        <v>71.5217850418923</v>
+        <v>4841270.028387389</v>
       </c>
       <c r="H71">
-        <v>2229.778290868987</v>
+        <v>3985867.238604994</v>
       </c>
       <c r="I71">
-        <v>-736.8471822721257</v>
+        <v>1115434.829195269</v>
       </c>
       <c r="J71">
-        <v>1377.623529349691</v>
+        <v>4842440.49797471</v>
       </c>
       <c r="K71">
-        <v>3286.446684293311</v>
+        <v>3987412.406727838</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2912,34 +2921,34 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>118.7012015746735</v>
+        <v>1116438.334672916</v>
       </c>
       <c r="G72">
-        <v>95.81506682449375</v>
+        <v>4841286.541195854</v>
       </c>
       <c r="H72">
-        <v>2276.391030990787</v>
+        <v>3985898.646150977</v>
       </c>
       <c r="I72">
-        <v>-702.1358156323602</v>
+        <v>1115478.534125392</v>
       </c>
       <c r="J72">
-        <v>1322.756987970505</v>
+        <v>4842391.846430192</v>
       </c>
       <c r="K72">
-        <v>3352.779887731308</v>
+        <v>3987473.82413595</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2947,34 +2956,34 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>113.2011749605803</v>
+        <v>1116434.733301696</v>
       </c>
       <c r="G73">
-        <v>120.1083486070952</v>
+        <v>4841303.05400432</v>
       </c>
       <c r="H73">
-        <v>2318.582963953796</v>
+        <v>3985927.074968317</v>
       </c>
       <c r="I73">
-        <v>-666.5697135229623</v>
+        <v>1115523.315249211</v>
       </c>
       <c r="J73">
-        <v>1267.890446591319</v>
+        <v>4842343.194885672</v>
       </c>
       <c r="K73">
-        <v>3402.751948306913</v>
+        <v>3987520.092886433</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2982,34 +2991,34 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>108.3993675305626</v>
+        <v>1116431.589118533</v>
       </c>
       <c r="G74">
-        <v>144.4016303896966</v>
+        <v>4841319.566812785</v>
       </c>
       <c r="H74">
-        <v>2357.120477149924</v>
+        <v>3985953.041446893</v>
       </c>
       <c r="I74">
-        <v>-630.1278288693345</v>
+        <v>1115569.199067006</v>
       </c>
       <c r="J74">
-        <v>1213.023905212133</v>
+        <v>4842294.543341153</v>
       </c>
       <c r="K74">
-        <v>3436.362866020126</v>
+        <v>3987551.212979286</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3017,34 +3026,34 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>104.1598254108064</v>
+        <v>1116428.813101971</v>
       </c>
       <c r="G75">
-        <v>168.694912172298</v>
+        <v>4841336.07962125</v>
       </c>
       <c r="H75">
-        <v>2392.586467270247</v>
+        <v>3985976.938341017</v>
       </c>
       <c r="I75">
-        <v>-592.7885963320301</v>
+        <v>1115616.212731602</v>
       </c>
       <c r="J75">
-        <v>1158.157363832947</v>
+        <v>4842245.891796635</v>
       </c>
       <c r="K75">
-        <v>3453.612640870946</v>
+        <v>3987567.184414508</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3052,34 +3061,34 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>100.3809225843939</v>
+        <v>1116426.338708148</v>
       </c>
       <c r="G76">
-        <v>192.9881939548994</v>
+        <v>4841352.592429715</v>
       </c>
       <c r="H76">
-        <v>2425.434611364152</v>
+        <v>3985999.071337134</v>
       </c>
       <c r="I76">
-        <v>-554.5299195449587</v>
+        <v>1115664.384064437</v>
       </c>
       <c r="J76">
-        <v>1103.290822453761</v>
+        <v>4842197.240252116</v>
       </c>
       <c r="K76">
-        <v>3454.501272859374</v>
+        <v>3987568.007192102</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3087,34 +3096,34 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>96.9849815965203</v>
+        <v>1116424.11507452</v>
       </c>
       <c r="G77">
-        <v>217.2814757375009</v>
+        <v>4841369.105238182</v>
       </c>
       <c r="H77">
-        <v>2456.024947385266</v>
+        <v>3986019.683027901</v>
       </c>
       <c r="I77">
-        <v>-515.329158039343</v>
+        <v>1115713.741572026</v>
       </c>
       <c r="J77">
-        <v>1048.424281074575</v>
+        <v>4842148.588707596</v>
       </c>
       <c r="K77">
-        <v>3439.02876198541</v>
+        <v>3987553.681312066</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3122,34 +3131,34 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>93.91148372841731</v>
+        <v>1116422.102573937</v>
       </c>
       <c r="G78">
-        <v>241.5747575201023</v>
+        <v>4841385.618046646</v>
       </c>
       <c r="H78">
-        <v>2484.647993174982</v>
+        <v>3986038.969163504</v>
       </c>
       <c r="I78">
-        <v>-475.1631138456905</v>
+        <v>1115764.314462832</v>
       </c>
       <c r="J78">
-        <v>993.5577396953895</v>
+        <v>4842099.937163077</v>
       </c>
       <c r="K78">
-        <v>3407.195108249053</v>
+        <v>3987524.2067744</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3157,34 +3166,34 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>91.11249003140061</v>
+        <v>1116420.269816379</v>
       </c>
       <c r="G79">
-        <v>265.8680393027037</v>
+        <v>4841402.130855111</v>
       </c>
       <c r="H79">
-        <v>2511.541567510407</v>
+        <v>3986057.08998563</v>
       </c>
       <c r="I79">
-        <v>-434.0080177658525</v>
+        <v>1115816.132664547</v>
       </c>
       <c r="J79">
-        <v>938.6911983162036</v>
+        <v>4842051.285618559</v>
       </c>
       <c r="K79">
-        <v>3359.000311650304</v>
+        <v>3987479.583579105</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3192,34 +3201,34 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>88.54947083334582</v>
+        <v>1116418.591572941</v>
       </c>
       <c r="G80">
-        <v>290.1613210853051</v>
+        <v>4841418.643663577</v>
       </c>
       <c r="H80">
-        <v>2536.90281253548</v>
+        <v>3986074.178328157</v>
       </c>
       <c r="I80">
-        <v>-391.8395153070428</v>
+        <v>1115869.226841808</v>
       </c>
       <c r="J80">
-        <v>883.8246569370176</v>
+        <v>4842002.634074039</v>
       </c>
       <c r="K80">
-        <v>3294.444372189163</v>
+        <v>3987419.81172618</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3227,34 +3236,34 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>86.19105926728732</v>
+        <v>1116417.047304862</v>
       </c>
       <c r="G81">
-        <v>314.4546028679065</v>
+        <v>4841435.156472042</v>
       </c>
       <c r="H81">
-        <v>2560.896971991342</v>
+        <v>3986090.345531897</v>
       </c>
       <c r="I81">
-        <v>-348.632652269496</v>
+        <v>1115923.628414338</v>
       </c>
       <c r="J81">
-        <v>828.9581155578319</v>
+        <v>4841953.98252952</v>
       </c>
       <c r="K81">
-        <v>3213.527289865629</v>
+        <v>3987344.891215626</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3262,34 +3271,34 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>84.01142681869923</v>
+        <v>1116415.620099846</v>
       </c>
       <c r="G82">
-        <v>338.747884650508</v>
+        <v>4841451.669280508</v>
       </c>
       <c r="H82">
-        <v>2583.663922189655</v>
+        <v>3986105.685845154</v>
       </c>
       <c r="I82">
-        <v>-304.3618599792342</v>
+        <v>1115979.369575543</v>
       </c>
       <c r="J82">
-        <v>774.0915741786458</v>
+        <v>4841905.330985001</v>
       </c>
       <c r="K82">
-        <v>3116.249064679703</v>
+        <v>3987254.822047442</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3297,34 +3306,34 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>81.98908724475839</v>
+        <v>1116414.295888883</v>
       </c>
       <c r="G83">
-        <v>363.0411664331094</v>
+        <v>4841468.182088973</v>
       </c>
       <c r="H83">
-        <v>2605.323112598836</v>
+        <v>3986120.279752677</v>
       </c>
       <c r="I83">
-        <v>-259.0009401572069</v>
+        <v>1116036.483311562</v>
       </c>
       <c r="J83">
-        <v>719.2250327994599</v>
+        <v>4841856.679440483</v>
       </c>
       <c r="K83">
-        <v>3002.609696631385</v>
+        <v>3987149.604221629</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3332,34 +3341,34 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>80.10600155550819</v>
+        <v>1116413.062860194</v>
       </c>
       <c r="G84">
-        <v>387.3344482157108</v>
+        <v>4841484.694897438</v>
       </c>
       <c r="H84">
-        <v>2625.977359278253</v>
+        <v>3986134.196531665</v>
       </c>
       <c r="I84">
-        <v>-212.5230494158434</v>
+        <v>1116095.003420787</v>
       </c>
       <c r="J84">
-        <v>664.3584914202742</v>
+        <v>4841808.027895963</v>
       </c>
       <c r="K84">
-        <v>2872.609185720675</v>
+        <v>3987029.237738186</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3367,34 +3376,34 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>78.3468984694242</v>
+        <v>1116411.911014273</v>
       </c>
       <c r="G85">
-        <v>411.6277299983122</v>
+        <v>4841501.207705904</v>
       </c>
       <c r="H85">
-        <v>2645.715796654006</v>
+        <v>3986147.49624067</v>
       </c>
       <c r="I85">
-        <v>-164.9006833738493</v>
+        <v>1116154.964533864</v>
       </c>
       <c r="J85">
-        <v>609.4919500410881</v>
+        <v>4841759.376351444</v>
       </c>
       <c r="K85">
-        <v>2726.247531947572</v>
+        <v>3986893.722597113</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3402,34 +3411,34 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>76.69875163912216</v>
+        <v>1116410.831821575</v>
       </c>
       <c r="G86">
-        <v>435.9210117809136</v>
+        <v>4841517.720514369</v>
       </c>
       <c r="H86">
-        <v>2664.616202236031</v>
+        <v>3986160.231285978</v>
       </c>
       <c r="I86">
-        <v>-116.1056603798442</v>
+        <v>1116216.402134187</v>
       </c>
       <c r="J86">
-        <v>554.6254086619024</v>
+        <v>4841710.724806925</v>
       </c>
       <c r="K86">
-        <v>2563.524735312077</v>
+        <v>3986743.05879841</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3437,34 +3446,34 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>75.15037264566486</v>
+        <v>1116409.817956018</v>
       </c>
       <c r="G87">
-        <v>460.2142935635151</v>
+        <v>4841534.233322835</v>
       </c>
       <c r="H87">
-        <v>2682.746847633475</v>
+        <v>3986172.447668828</v>
       </c>
       <c r="I87">
-        <v>-66.10910483520966</v>
+        <v>1116279.352578896</v>
       </c>
       <c r="J87">
-        <v>499.7588672827164</v>
+        <v>4841662.073262407</v>
       </c>
       <c r="K87">
-        <v>2384.440795814189</v>
+        <v>3986577.246342079</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3472,34 +3481,34 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>73.69209064910824</v>
+        <v>1116408.863085218</v>
       </c>
       <c r="G88">
-        <v>484.5075753461165</v>
+        <v>4841550.746131299</v>
       </c>
       <c r="H88">
-        <v>2700.167987176882</v>
+        <v>3986184.185988435</v>
       </c>
       <c r="I88">
-        <v>-14.88143010627644</v>
+        <v>1116343.853120394</v>
       </c>
       <c r="J88">
-        <v>444.8923259035304</v>
+        <v>4841613.421717887</v>
       </c>
       <c r="K88">
-        <v>2188.995713453909</v>
+        <v>3986396.285228117</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3507,34 +3516,34 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>72.31549771200186</v>
+        <v>1116407.961703728</v>
       </c>
       <c r="G89">
-        <v>508.800857128718</v>
+        <v>4841567.258939764</v>
       </c>
       <c r="H89">
-        <v>2716.933066088258</v>
+        <v>3986195.482256053</v>
       </c>
       <c r="I89">
-        <v>37.60767898426034</v>
+        <v>1116409.941928386</v>
       </c>
       <c r="J89">
-        <v>390.0257845243447</v>
+        <v>4841564.770173368</v>
       </c>
       <c r="K89">
-        <v>1977.189488231237</v>
+        <v>3986200.175456527</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3542,34 +3551,34 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>71.01324446245211</v>
+        <v>1116407.108999241</v>
       </c>
       <c r="G90">
-        <v>533.0941389113193</v>
+        <v>4841583.771748231</v>
       </c>
       <c r="H90">
-        <v>2733.089709307091</v>
+        <v>3986206.368561245</v>
       </c>
       <c r="I90">
-        <v>91.38928409705659</v>
+        <v>1116477.658112474</v>
       </c>
       <c r="J90">
-        <v>335.1592431451587</v>
+        <v>4841516.118628849</v>
       </c>
       <c r="K90">
-        <v>1749.022120146173</v>
+        <v>3985988.917027306</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3577,34 +3586,34 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>69.77887474949176</v>
+        <v>1116406.300744324</v>
       </c>
       <c r="G91">
-        <v>557.3874206939208</v>
+        <v>4841600.284556695</v>
       </c>
       <c r="H91">
-        <v>2748.680537089144</v>
+        <v>3986216.873621432</v>
       </c>
       <c r="I91">
-        <v>146.4952117575865</v>
+        <v>1116547.041745298</v>
       </c>
       <c r="J91">
-        <v>280.292701765973</v>
+        <v>4841467.467084331</v>
       </c>
       <c r="K91">
-        <v>1504.493609198717</v>
+        <v>3985762.509940456</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3612,34 +3621,34 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>68.60669079496442</v>
+        <v>1116405.533208118</v>
       </c>
       <c r="G92">
-        <v>581.6807024765222</v>
+        <v>4841616.797365161</v>
       </c>
       <c r="H92">
-        <v>2763.743842564778</v>
+        <v>3986227.023238428</v>
       </c>
       <c r="I92">
-        <v>202.9580721902325</v>
+        <v>1116618.133886248</v>
       </c>
       <c r="J92">
-        <v>225.426160386787</v>
+        <v>4841418.815539812</v>
       </c>
       <c r="K92">
-        <v>1243.603955388867</v>
+        <v>3985520.954195976</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3647,34 +3656,34 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>67.49164241208261</v>
+        <v>1116404.803083805</v>
       </c>
       <c r="G93">
-        <v>605.9739842591237</v>
+        <v>4841633.310173627</v>
       </c>
       <c r="H93">
-        <v>2778.314158377357</v>
+        <v>3986236.840680241</v>
       </c>
       <c r="I93">
-        <v>260.8112786161538</v>
+        <v>1116690.976605766</v>
       </c>
       <c r="J93">
-        <v>170.559619007601</v>
+        <v>4841370.163995293</v>
       </c>
       <c r="K93">
-        <v>966.3531587166256</v>
+        <v>3985264.249793868</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3682,34 +3691,34 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>66.42923537544542</v>
+        <v>1116404.107428603</v>
       </c>
       <c r="G94">
-        <v>630.2672660417251</v>
+        <v>4841649.822982091</v>
       </c>
       <c r="H94">
-        <v>2792.422733502529</v>
+        <v>3986246.34700235</v>
       </c>
       <c r="I94">
-        <v>320.0890670263386</v>
+        <v>1116765.613010237</v>
       </c>
       <c r="J94">
-        <v>115.6930776284153</v>
+        <v>4841321.512450774</v>
       </c>
       <c r="K94">
-        <v>672.7412191819924</v>
+        <v>3984992.396734129</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3717,34 +3726,34 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>65.41545514999846</v>
+        <v>1116403.443613828</v>
       </c>
       <c r="G95">
-        <v>654.5605478243265</v>
+        <v>4841666.335790557</v>
       </c>
       <c r="H95">
-        <v>2806.097936809585</v>
+        <v>3986255.561319628</v>
       </c>
       <c r="I95">
-        <v>380.82651644156</v>
+        <v>1116842.087267505</v>
       </c>
       <c r="J95">
-        <v>60.82653624922931</v>
+        <v>4841272.860906255</v>
       </c>
       <c r="K95">
-        <v>362.7681367849659</v>
+        <v>3984705.39501676</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3752,34 +3761,34 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>64.44670302714039</v>
+        <v>1116402.809283077</v>
       </c>
       <c r="G96">
-        <v>678.853829606928</v>
+        <v>4841682.848599023</v>
       </c>
       <c r="H96">
-        <v>2819.365600469554</v>
+        <v>3986264.501037727</v>
       </c>
       <c r="I96">
-        <v>443.059569671202</v>
+        <v>1116920.444633002</v>
       </c>
       <c r="J96">
-        <v>5.959994870043331</v>
+        <v>4841224.209361736</v>
       </c>
       <c r="K96">
-        <v>36.43391152554737</v>
+        <v>3984403.244641762</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3787,34 +3796,34 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>63.51974235180388</v>
+        <v>1116402.202317015</v>
       </c>
       <c r="G97">
-        <v>703.1471113895293</v>
+        <v>4841699.361407488</v>
       </c>
       <c r="H97">
-        <v>2832.249313658714</v>
+        <v>3986273.182050972</v>
       </c>
       <c r="I97">
-        <v>506.8250545832642</v>
+        <v>1117000.731476538</v>
       </c>
       <c r="J97">
-        <v>-48.9065465091424</v>
+        <v>4841175.557817217</v>
       </c>
       <c r="K97">
-        <v>-306.2614565962625</v>
+        <v>3984085.945609135</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3822,34 +3831,34 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>62.63165300920457</v>
+        <v>1116401.620803574</v>
       </c>
       <c r="G98">
-        <v>727.4403931721307</v>
+        <v>4841715.874215953</v>
       </c>
       <c r="H98">
-        <v>2844.770674948267</v>
+        <v>3986281.618912428</v>
       </c>
       <c r="I98">
-        <v>572.1607058981158</v>
+        <v>1117082.995309733</v>
       </c>
       <c r="J98">
-        <v>-103.7730878883284</v>
+        <v>4841126.906272698</v>
       </c>
       <c r="K98">
-        <v>-665.3179675804657</v>
+        <v>3983753.497918878</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3857,34 +3866,34 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>61.77979271292465</v>
+        <v>1116401.063012609</v>
       </c>
       <c r="G99">
-        <v>751.7336749547322</v>
+        <v>4841732.387024418</v>
       </c>
       <c r="H99">
-        <v>2856.94951016344</v>
+        <v>3986289.824980684</v>
       </c>
       <c r="I99">
-        <v>639.105187518899</v>
+        <v>1117167.284814139</v>
       </c>
       <c r="J99">
-        <v>-158.6396292675144</v>
+        <v>4841078.254728178</v>
       </c>
       <c r="K99">
-        <v>-1040.735621427062</v>
+        <v>3983405.901570991</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3892,34 +3901,34 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>60.96176392518478</v>
+        <v>1116400.527374231</v>
       </c>
       <c r="G100">
-        <v>776.0269567373335</v>
+        <v>4841748.899832884</v>
       </c>
       <c r="H100">
-        <v>2868.804061230511</v>
+        <v>3986297.812547104</v>
       </c>
       <c r="I100">
-        <v>707.6981154118001</v>
+        <v>1117253.649870047</v>
       </c>
       <c r="J100">
-        <v>-213.5061706467004</v>
+        <v>4841029.60318366</v>
       </c>
       <c r="K100">
-        <v>-1432.51441813605</v>
+        <v>3983043.156565475</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3927,34 +3936,34 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>60.17538546602953</v>
+        <v>1116400.012460223</v>
       </c>
       <c r="G101">
-        <v>800.3202385199349</v>
+        <v>4841765.412641349</v>
       </c>
       <c r="H101">
-        <v>2880.35115052794</v>
+        <v>3986305.592946564</v>
       </c>
       <c r="I101">
-        <v>777.9800810497269</v>
+        <v>1117342.141586001</v>
       </c>
       <c r="J101">
-        <v>-268.3727120258858</v>
+        <v>4840980.951639141</v>
       </c>
       <c r="K101">
-        <v>-1840.654357707428</v>
+        <v>3982665.262902329</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3962,34 +3971,34 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>59.41866804582659</v>
+        <v>1116399.516968013</v>
       </c>
       <c r="G102">
-        <v>824.6135203025365</v>
+        <v>4841781.925449814</v>
       </c>
       <c r="H102">
-        <v>2891.6063244583</v>
+        <v>3986313.17665419</v>
       </c>
       <c r="I102">
-        <v>849.9926754332657</v>
+        <v>1117432.812329051</v>
       </c>
       <c r="J102">
-        <v>-323.2392534050718</v>
+        <v>4840932.300094622</v>
       </c>
       <c r="K102">
-        <v>-2265.1554401412</v>
+        <v>3982272.220581554</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3997,34 +4006,34 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>58.68979309615673</v>
+        <v>1116399.03970682</v>
       </c>
       <c r="G103">
-        <v>848.9068020851379</v>
+        <v>4841798.43825828</v>
       </c>
       <c r="H103">
-        <v>2902.583979316</v>
+        <v>3986320.573370171</v>
       </c>
       <c r="I103">
-        <v>923.7785137031267</v>
+        <v>1117525.715755732</v>
       </c>
       <c r="J103">
-        <v>-378.1057947842578</v>
+        <v>4840883.648550102</v>
       </c>
       <c r="K103">
-        <v>-2706.017665437365</v>
+        <v>3981864.029603149</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4032,34 +4041,34 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>57.98709438625992</v>
+        <v>1116398.579585608</v>
       </c>
       <c r="G104">
-        <v>873.2000838677392</v>
+        <v>4841814.951066745</v>
       </c>
       <c r="H104">
-        <v>2913.297472007653</v>
+        <v>3986327.792094354</v>
       </c>
       <c r="I104">
-        <v>999.3812603586564</v>
+        <v>1117620.906843825</v>
       </c>
       <c r="J104">
-        <v>-432.9723361634438</v>
+        <v>4840834.997005584</v>
       </c>
       <c r="K104">
-        <v>-3163.241033595923</v>
+        <v>3981440.689967115</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4067,34 +4076,34 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>57.30904200204502</v>
+        <v>1116398.135602604</v>
       </c>
       <c r="G105">
-        <v>897.4933656503407</v>
+        <v>4841831.46387521</v>
       </c>
       <c r="H105">
-        <v>2923.759217761221</v>
+        <v>3986334.841192089</v>
       </c>
       <c r="I105">
-        <v>1076.845655097328</v>
+        <v>1117718.441924889</v>
       </c>
       <c r="J105">
-        <v>-487.8388775426297</v>
+        <v>4840786.345461065</v>
       </c>
       <c r="K105">
-        <v>-3636.825544616872</v>
+        <v>3981002.201673451</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4102,34 +4111,34 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>56.65422833707691</v>
+        <v>1116397.706836117</v>
       </c>
       <c r="G106">
-        <v>921.7866474329421</v>
+        <v>4841847.976683676</v>
       </c>
       <c r="H106">
-        <v>2933.9807766167</v>
+        <v>3986341.728452501</v>
       </c>
       <c r="I106">
-        <v>1156.217539290501</v>
+        <v>1117818.378717593</v>
       </c>
       <c r="J106">
-        <v>-542.7054189218153</v>
+        <v>4840737.693916546</v>
       </c>
       <c r="K106">
-        <v>-4126.771198500211</v>
+        <v>3980548.564722157</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4137,34 +4146,1889 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>56.02135580363868</v>
+        <v>1116397.292436499</v>
       </c>
       <c r="G107">
-        <v>946.0799292155435</v>
+        <v>4841864.489492142</v>
       </c>
       <c r="H107">
-        <v>2943.972930209368</v>
+        <v>3986348.46114023</v>
       </c>
       <c r="I107">
-        <v>1237.543883111138</v>
+        <v>1117920.776361878</v>
       </c>
       <c r="J107">
-        <v>-597.5719603010012</v>
+        <v>4840689.042372026</v>
       </c>
       <c r="K107">
-        <v>-4633.077995245945</v>
+        <v>3980079.779113234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G108">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H108">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I108">
+        <v>1114858.475613819</v>
+      </c>
+      <c r="J108">
+        <v>4843216.752137024</v>
+      </c>
+      <c r="K108">
+        <v>3984364.48800941</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G109">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H109">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I109">
+        <v>1114888.089533733</v>
+      </c>
+      <c r="J109">
+        <v>4843168.100614309</v>
+      </c>
+      <c r="K109">
+        <v>3984668.283556626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G110">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H110">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I110">
+        <v>1114918.432669181</v>
+      </c>
+      <c r="J110">
+        <v>4843119.449091593</v>
+      </c>
+      <c r="K110">
+        <v>3984956.930465308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G111">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H111">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I111">
+        <v>1114949.522976424</v>
+      </c>
+      <c r="J111">
+        <v>4843070.797568878</v>
+      </c>
+      <c r="K111">
+        <v>3985230.428735458</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G112">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H112">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I112">
+        <v>1114981.378853881</v>
+      </c>
+      <c r="J112">
+        <v>4843022.146046164</v>
+      </c>
+      <c r="K112">
+        <v>3985488.778367075</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G113">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H113">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I113">
+        <v>1115014.019153013</v>
+      </c>
+      <c r="J113">
+        <v>4842973.494523449</v>
+      </c>
+      <c r="K113">
+        <v>3985731.979360159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G114">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H114">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I114">
+        <v>1115047.463189483</v>
+      </c>
+      <c r="J114">
+        <v>4842924.843000732</v>
+      </c>
+      <c r="K114">
+        <v>3985960.031714709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G115">
+        <v>4841123.430718561</v>
+      </c>
+      <c r="H115">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I115">
+        <v>1115081.730754582</v>
+      </c>
+      <c r="J115">
+        <v>4842876.191478018</v>
+      </c>
+      <c r="K115">
+        <v>3986172.935430727</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116579.758131274</v>
+      </c>
+      <c r="G116">
+        <v>4841139.943533909</v>
+      </c>
+      <c r="H116">
+        <v>3985222.809717074</v>
+      </c>
+      <c r="I116">
+        <v>1115116.842126947</v>
+      </c>
+      <c r="J116">
+        <v>4842827.539955303</v>
+      </c>
+      <c r="K116">
+        <v>3986370.690508211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.07751282</v>
+      </c>
+      <c r="G117">
+        <v>4841156.456349256</v>
+      </c>
+      <c r="H117">
+        <v>3985422.063847926</v>
+      </c>
+      <c r="I117">
+        <v>1115152.818084555</v>
+      </c>
+      <c r="J117">
+        <v>4842778.888432587</v>
+      </c>
+      <c r="K117">
+        <v>3986553.296947164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116502.480091561</v>
+      </c>
+      <c r="G118">
+        <v>4841172.969164602</v>
+      </c>
+      <c r="H118">
+        <v>3985540.749798505</v>
+      </c>
+      <c r="I118">
+        <v>1115189.679917021</v>
+      </c>
+      <c r="J118">
+        <v>4842730.236909872</v>
+      </c>
+      <c r="K118">
+        <v>3986720.754747583</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116484.42730125</v>
+      </c>
+      <c r="G119">
+        <v>4841189.48197995</v>
+      </c>
+      <c r="H119">
+        <v>3985625.566625706</v>
+      </c>
+      <c r="I119">
+        <v>1115227.449438199</v>
+      </c>
+      <c r="J119">
+        <v>4842681.585387157</v>
+      </c>
+      <c r="K119">
+        <v>3986873.063909468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116471.837358568</v>
+      </c>
+      <c r="G120">
+        <v>4841205.994795297</v>
+      </c>
+      <c r="H120">
+        <v>3985691.613443608</v>
+      </c>
+      <c r="I120">
+        <v>1115266.148999089</v>
+      </c>
+      <c r="J120">
+        <v>4842632.933864442</v>
+      </c>
+      <c r="K120">
+        <v>3987010.224432821</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116462.444884301</v>
+      </c>
+      <c r="G121">
+        <v>4841222.507610645</v>
+      </c>
+      <c r="H121">
+        <v>3985745.710910528</v>
+      </c>
+      <c r="I121">
+        <v>1115305.801501063</v>
+      </c>
+      <c r="J121">
+        <v>4842584.282341727</v>
+      </c>
+      <c r="K121">
+        <v>3987132.236317642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.101281045</v>
+      </c>
+      <c r="G122">
+        <v>4841239.020425991</v>
+      </c>
+      <c r="H122">
+        <v>3985791.527516085</v>
+      </c>
+      <c r="I122">
+        <v>1115346.430409419</v>
+      </c>
+      <c r="J122">
+        <v>4842535.630819011</v>
+      </c>
+      <c r="K122">
+        <v>3987239.099563929</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116449.159771305</v>
+      </c>
+      <c r="G123">
+        <v>4841255.533241339</v>
+      </c>
+      <c r="H123">
+        <v>3985831.265076958</v>
+      </c>
+      <c r="I123">
+        <v>1115388.059767265</v>
+      </c>
+      <c r="J123">
+        <v>4842486.979296297</v>
+      </c>
+      <c r="K123">
+        <v>3987330.814171683</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116444.226201142</v>
+      </c>
+      <c r="G124">
+        <v>4841272.046056687</v>
+      </c>
+      <c r="H124">
+        <v>3985866.34941103</v>
+      </c>
+      <c r="I124">
+        <v>1115430.714209749</v>
+      </c>
+      <c r="J124">
+        <v>4842438.327773581</v>
+      </c>
+      <c r="K124">
+        <v>3987407.380140904</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.045371634</v>
+      </c>
+      <c r="G125">
+        <v>4841288.558872034</v>
+      </c>
+      <c r="H125">
+        <v>3985897.756950007</v>
+      </c>
+      <c r="I125">
+        <v>1115474.418978639</v>
+      </c>
+      <c r="J125">
+        <v>4842389.676250867</v>
+      </c>
+      <c r="K125">
+        <v>3987468.797471592</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116436.443994896</v>
+      </c>
+      <c r="G126">
+        <v>4841305.071687381</v>
+      </c>
+      <c r="H126">
+        <v>3985926.185761004</v>
+      </c>
+      <c r="I126">
+        <v>1115519.199937254</v>
+      </c>
+      <c r="J126">
+        <v>4842341.024728151</v>
+      </c>
+      <c r="K126">
+        <v>3987515.066163747</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116433.299806915</v>
+      </c>
+      <c r="G127">
+        <v>4841321.584502729</v>
+      </c>
+      <c r="H127">
+        <v>3985952.152233788</v>
+      </c>
+      <c r="I127">
+        <v>1115565.083585778</v>
+      </c>
+      <c r="J127">
+        <v>4842292.373205435</v>
+      </c>
+      <c r="K127">
+        <v>3987546.18621737</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116430.523786099</v>
+      </c>
+      <c r="G128">
+        <v>4841338.097318076</v>
+      </c>
+      <c r="H128">
+        <v>3985976.049122581</v>
+      </c>
+      <c r="I128">
+        <v>1115612.097076935</v>
+      </c>
+      <c r="J128">
+        <v>4842243.721682721</v>
+      </c>
+      <c r="K128">
+        <v>3987562.157632459</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.049388485</v>
+      </c>
+      <c r="G129">
+        <v>4841354.610133423</v>
+      </c>
+      <c r="H129">
+        <v>3985998.18211376</v>
+      </c>
+      <c r="I129">
+        <v>1115660.268232059</v>
+      </c>
+      <c r="J129">
+        <v>4842195.070160006</v>
+      </c>
+      <c r="K129">
+        <v>3987562.980409015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116425.825751449</v>
+      </c>
+      <c r="G130">
+        <v>4841371.12294877</v>
+      </c>
+      <c r="H130">
+        <v>3986018.793799929</v>
+      </c>
+      <c r="I130">
+        <v>1115709.625557562</v>
+      </c>
+      <c r="J130">
+        <v>4842146.418637291</v>
+      </c>
+      <c r="K130">
+        <v>3987548.654547038</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116423.813247783</v>
+      </c>
+      <c r="G131">
+        <v>4841387.635764117</v>
+      </c>
+      <c r="H131">
+        <v>3986038.079931229</v>
+      </c>
+      <c r="I131">
+        <v>1115760.198261798</v>
+      </c>
+      <c r="J131">
+        <v>4842097.767114575</v>
+      </c>
+      <c r="K131">
+        <v>3987519.180046529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116421.980487417</v>
+      </c>
+      <c r="G132">
+        <v>4841404.148579465</v>
+      </c>
+      <c r="H132">
+        <v>3986056.200749313</v>
+      </c>
+      <c r="I132">
+        <v>1115812.016272349</v>
+      </c>
+      <c r="J132">
+        <v>4842049.11559186</v>
+      </c>
+      <c r="K132">
+        <v>3987474.556907486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116420.302241408</v>
+      </c>
+      <c r="G133">
+        <v>4841420.661394812</v>
+      </c>
+      <c r="H133">
+        <v>3986073.289088028</v>
+      </c>
+      <c r="I133">
+        <v>1115865.110253738</v>
+      </c>
+      <c r="J133">
+        <v>4842000.464069145</v>
+      </c>
+      <c r="K133">
+        <v>3987414.78512991</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116418.757970962</v>
+      </c>
+      <c r="G134">
+        <v>4841437.174210159</v>
+      </c>
+      <c r="H134">
+        <v>3986089.456288161</v>
+      </c>
+      <c r="I134">
+        <v>1115919.511625574</v>
+      </c>
+      <c r="J134">
+        <v>4841951.812546429</v>
+      </c>
+      <c r="K134">
+        <v>3987339.864713802</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116417.330763759</v>
+      </c>
+      <c r="G135">
+        <v>4841453.687025507</v>
+      </c>
+      <c r="H135">
+        <v>3986104.796597996</v>
+      </c>
+      <c r="I135">
+        <v>1115975.252581143</v>
+      </c>
+      <c r="J135">
+        <v>4841903.161023715</v>
+      </c>
+      <c r="K135">
+        <v>3987249.795659161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.006550767</v>
+      </c>
+      <c r="G136">
+        <v>4841470.199840854</v>
+      </c>
+      <c r="H136">
+        <v>3986119.390502263</v>
+      </c>
+      <c r="I136">
+        <v>1116032.366106462</v>
+      </c>
+      <c r="J136">
+        <v>4841854.509501</v>
+      </c>
+      <c r="K136">
+        <v>3987144.577965986</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116414.773520189</v>
+      </c>
+      <c r="G137">
+        <v>4841486.712656202</v>
+      </c>
+      <c r="H137">
+        <v>3986133.307278147</v>
+      </c>
+      <c r="I137">
+        <v>1116090.885999798</v>
+      </c>
+      <c r="J137">
+        <v>4841805.857978284</v>
+      </c>
+      <c r="K137">
+        <v>3987024.211634279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116413.621672502</v>
+      </c>
+      <c r="G138">
+        <v>4841503.225471549</v>
+      </c>
+      <c r="H138">
+        <v>3986146.606984184</v>
+      </c>
+      <c r="I138">
+        <v>1116150.84689167</v>
+      </c>
+      <c r="J138">
+        <v>4841757.206455569</v>
+      </c>
+      <c r="K138">
+        <v>3986888.696664039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116412.542478151</v>
+      </c>
+      <c r="G139">
+        <v>4841519.738286896</v>
+      </c>
+      <c r="H139">
+        <v>3986159.342026652</v>
+      </c>
+      <c r="I139">
+        <v>1116212.284265342</v>
+      </c>
+      <c r="J139">
+        <v>4841708.554932854</v>
+      </c>
+      <c r="K139">
+        <v>3986738.033055265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116411.528611041</v>
+      </c>
+      <c r="G140">
+        <v>4841536.251102244</v>
+      </c>
+      <c r="H140">
+        <v>3986171.558406776</v>
+      </c>
+      <c r="I140">
+        <v>1116275.234477819</v>
+      </c>
+      <c r="J140">
+        <v>4841659.903410139</v>
+      </c>
+      <c r="K140">
+        <v>3986572.220807959</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116410.573738778</v>
+      </c>
+      <c r="G141">
+        <v>4841552.76391759</v>
+      </c>
+      <c r="H141">
+        <v>3986183.296723764</v>
+      </c>
+      <c r="I141">
+        <v>1116339.734781365</v>
+      </c>
+      <c r="J141">
+        <v>4841611.251887423</v>
+      </c>
+      <c r="K141">
+        <v>3986391.259922119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116409.672355907</v>
+      </c>
+      <c r="G142">
+        <v>4841569.276732937</v>
+      </c>
+      <c r="H142">
+        <v>3986194.592988862</v>
+      </c>
+      <c r="I142">
+        <v>1116405.823345547</v>
+      </c>
+      <c r="J142">
+        <v>4841562.600364708</v>
+      </c>
+      <c r="K142">
+        <v>3986195.150397747</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116408.819650113</v>
+      </c>
+      <c r="G143">
+        <v>4841585.789548285</v>
+      </c>
+      <c r="H143">
+        <v>3986205.479291626</v>
+      </c>
+      <c r="I143">
+        <v>1116473.539279821</v>
+      </c>
+      <c r="J143">
+        <v>4841513.948841994</v>
+      </c>
+      <c r="K143">
+        <v>3985983.892234842</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.011393957</v>
+      </c>
+      <c r="G144">
+        <v>4841602.302363632</v>
+      </c>
+      <c r="H144">
+        <v>3986215.98434947</v>
+      </c>
+      <c r="I144">
+        <v>1116542.92265668</v>
+      </c>
+      <c r="J144">
+        <v>4841465.297319279</v>
+      </c>
+      <c r="K144">
+        <v>3985757.485433404</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116407.243856575</v>
+      </c>
+      <c r="G145">
+        <v>4841618.815178979</v>
+      </c>
+      <c r="H145">
+        <v>3986226.133964201</v>
+      </c>
+      <c r="I145">
+        <v>1116614.014535362</v>
+      </c>
+      <c r="J145">
+        <v>4841416.645796563</v>
+      </c>
+      <c r="K145">
+        <v>3985515.929993432</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116406.513731143</v>
+      </c>
+      <c r="G146">
+        <v>4841635.327994327</v>
+      </c>
+      <c r="H146">
+        <v>3986235.951403824</v>
+      </c>
+      <c r="I146">
+        <v>1116686.856986153</v>
+      </c>
+      <c r="J146">
+        <v>4841367.994273848</v>
+      </c>
+      <c r="K146">
+        <v>3985259.225914929</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116405.818074875</v>
+      </c>
+      <c r="G147">
+        <v>4841651.840809674</v>
+      </c>
+      <c r="H147">
+        <v>3986245.457723812</v>
+      </c>
+      <c r="I147">
+        <v>1116761.493115281</v>
+      </c>
+      <c r="J147">
+        <v>4841319.342751133</v>
+      </c>
+      <c r="K147">
+        <v>3984987.373197892</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116405.154259084</v>
+      </c>
+      <c r="G148">
+        <v>4841668.353625022</v>
+      </c>
+      <c r="H148">
+        <v>3986254.672039035</v>
+      </c>
+      <c r="I148">
+        <v>1116837.967090425</v>
+      </c>
+      <c r="J148">
+        <v>4841270.691228418</v>
+      </c>
+      <c r="K148">
+        <v>3984700.371842321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116404.51992736</v>
+      </c>
+      <c r="G149">
+        <v>4841684.866440369</v>
+      </c>
+      <c r="H149">
+        <v>3986263.611755139</v>
+      </c>
+      <c r="I149">
+        <v>1116916.324166852</v>
+      </c>
+      <c r="J149">
+        <v>4841222.039705702</v>
+      </c>
+      <c r="K149">
+        <v>3984398.221848219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.912960368</v>
+      </c>
+      <c r="G150">
+        <v>4841701.379255716</v>
+      </c>
+      <c r="H150">
+        <v>3986272.292766448</v>
+      </c>
+      <c r="I150">
+        <v>1116996.610714199</v>
+      </c>
+      <c r="J150">
+        <v>4841173.388182987</v>
+      </c>
+      <c r="K150">
+        <v>3984080.923215583</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116403.331446036</v>
+      </c>
+      <c r="G151">
+        <v>4841717.892071064</v>
+      </c>
+      <c r="H151">
+        <v>3986280.729626021</v>
+      </c>
+      <c r="I151">
+        <v>1117078.874243912</v>
+      </c>
+      <c r="J151">
+        <v>4841124.736660272</v>
+      </c>
+      <c r="K151">
+        <v>3983748.475944414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116402.773654216</v>
+      </c>
+      <c r="G152">
+        <v>4841734.404886411</v>
+      </c>
+      <c r="H152">
+        <v>3986288.935692447</v>
+      </c>
+      <c r="I152">
+        <v>1117163.163437363</v>
+      </c>
+      <c r="J152">
+        <v>4841076.085137556</v>
+      </c>
+      <c r="K152">
+        <v>3983400.880034712</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116402.238015018</v>
+      </c>
+      <c r="G153">
+        <v>4841750.917701758</v>
+      </c>
+      <c r="H153">
+        <v>3986296.923257085</v>
+      </c>
+      <c r="I153">
+        <v>1117249.528174659</v>
+      </c>
+      <c r="J153">
+        <v>4841027.433614842</v>
+      </c>
+      <c r="K153">
+        <v>3983038.135486478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116401.723100221</v>
+      </c>
+      <c r="G154">
+        <v>4841767.430517105</v>
+      </c>
+      <c r="H154">
+        <v>3986304.703654809</v>
+      </c>
+      <c r="I154">
+        <v>1117338.019564156</v>
+      </c>
+      <c r="J154">
+        <v>4840978.782092127</v>
+      </c>
+      <c r="K154">
+        <v>3982660.242299709</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116401.227607252</v>
+      </c>
+      <c r="G155">
+        <v>4841783.943332452</v>
+      </c>
+      <c r="H155">
+        <v>3986312.287360744</v>
+      </c>
+      <c r="I155">
+        <v>1117428.689972709</v>
+      </c>
+      <c r="J155">
+        <v>4840930.130569411</v>
+      </c>
+      <c r="K155">
+        <v>3982267.200474409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116400.750345327</v>
+      </c>
+      <c r="G156">
+        <v>4841800.4561478</v>
+      </c>
+      <c r="H156">
+        <v>3986319.684075074</v>
+      </c>
+      <c r="I156">
+        <v>1117521.593056657</v>
+      </c>
+      <c r="J156">
+        <v>4840881.479046696</v>
+      </c>
+      <c r="K156">
+        <v>3981859.010010575</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116400.290223411</v>
+      </c>
+      <c r="G157">
+        <v>4841816.968963147</v>
+      </c>
+      <c r="H157">
+        <v>3986326.902797646</v>
+      </c>
+      <c r="I157">
+        <v>1117616.783793578</v>
+      </c>
+      <c r="J157">
+        <v>4840832.827523981</v>
+      </c>
+      <c r="K157">
+        <v>3981435.670908208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116399.846239726</v>
+      </c>
+      <c r="G158">
+        <v>4841833.481778494</v>
+      </c>
+      <c r="H158">
+        <v>3986333.951893809</v>
+      </c>
+      <c r="I158">
+        <v>1117714.318514822</v>
+      </c>
+      <c r="J158">
+        <v>4840784.176001266</v>
+      </c>
+      <c r="K158">
+        <v>3980997.183167309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116399.417472582</v>
+      </c>
+      <c r="G159">
+        <v>4841849.994593842</v>
+      </c>
+      <c r="H159">
+        <v>3986340.839152685</v>
+      </c>
+      <c r="I159">
+        <v>1117814.254938846</v>
+      </c>
+      <c r="J159">
+        <v>4840735.524478551</v>
+      </c>
+      <c r="K159">
+        <v>3980543.546787876</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.003072329</v>
+      </c>
+      <c r="G160">
+        <v>4841866.50740919</v>
+      </c>
+      <c r="H160">
+        <v>3986347.571838912</v>
+      </c>
+      <c r="I160">
+        <v>1117916.652205373</v>
+      </c>
+      <c r="J160">
+        <v>4840686.872955835</v>
+      </c>
+      <c r="K160">
+        <v>3980074.761769911</v>
       </c>
     </row>
   </sheetData>
